--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -1,6 +1,141 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -16,7 +151,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -28,7 +163,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -75,23 +210,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -127,23 +245,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,9 +387,59 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="18.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="28.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bestelbonnummer</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Artikelcode</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Aantal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Laatst bevestigde leverdatum</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,7 +60,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -401,18 +401,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="28.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="20.140625" bestFit="1" customWidth="1" min="1" max="2"/>
+    <col width="9" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="30" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -434,6 +433,1722 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Laatst bevestigde leverdatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5SY7420-7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>01/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5ST3010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5SD7464-1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3VA2110-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3VA9988-0AA12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3VA2140-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5SY7202-7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5SY7206-7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5SY7216-7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5SY8263-7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5SY7210-7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5SY7220-7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5SM2622-6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5SY7240-8</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5SY7206-6</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6EP1961-2BA21</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3SK1111-1AB30</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3SK1211-1BB40</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5TT4452-5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3VA1125-4EF36-0AA0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>02/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3VA9113-0RL21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5SY7304-7</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5SM2632-6</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3VA2110-5HL32-0AA0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3RV2041-4HA10</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8US1211-4TR00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3RV2901-2E</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3RV2021-1GA20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3RV2021-4AA20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3RV2031-4EA10</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>02/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3RV2031-4UA10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3RT2024-2BB40</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3RT2035-1NB30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>28/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8US1251-5NT11</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>8US1261-6MT10</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3RA2933-1DB1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>02/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6EP1334-3BA10</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>09/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3SU1106-6AA60-1AA0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5SY7420-7 </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3SU1801-0NB00-2AC2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5SY7420-7</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>01/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5ST3010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5SD7464-1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3VA2110-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>25/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3VA9988-0AA12</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3VA2140-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>25/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5SY7202-7</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5SY7206-7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5SY7216-7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5SY8263-7</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>22/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5SY7210-7</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>29/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5SY7220-7</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5SM2622-6</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5SY7240-8</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5SY7206-6</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6EP1961-2BA21</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>31/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3SK1111-1AB30</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3SK1211-1BB40</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>21/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5TT4452-5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3VA1125-4EF36-0AA0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>02/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3VA9113-0RL21</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>22/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5SY7304-7</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5SM2632-6</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3VA2110-5HL32-0AA0</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3RV2041-4HA10</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>30/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>8US1211-4TR00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3RV2901-2E</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>17/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3RV2021-1GA20</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3RV2021-4AA20</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3RV2031-4EA10</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>02/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3RV2031-4UA10</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3RT2024-2BB40</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>20/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3RT2035-1NB30</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>28/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>8US1251-5NT11</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>20/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>8US1261-6MT10</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>13/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3RA2933-1DB1</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>02/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>6EP1334-3BA10</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>09/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3SU1106-6AA60-1AA0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>16/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3SU1801-0NB00-2AC2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10/01/23</t>
         </is>
       </c>
     </row>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -1,66 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitryvm\Downloads\OutlookEmailScraping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98E3513-3B92-4307-98CA-55BCB59AA20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Bestelbonnummer</t>
-  </si>
-  <si>
-    <t>Artikelcode</t>
-  </si>
-  <si>
-    <t>Aantal</t>
-  </si>
-  <si>
-    <t>Laatst bevestigde leverdatum</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,22 +56,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,37 +396,1919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A2" sqref="A2:D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col width="20.140625" bestFit="1" customWidth="1" min="1" max="2"/>
+    <col width="9" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="30" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bestelbon</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Artikel</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Aantal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Bevestigde leverdatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1082918</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6ES7924-2CA20-0BC0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1082918</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6ES7921-5CB20-0AA0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1082918</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6ES7923-5BB00-0CB0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1082528</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6ES7924-2CA20-0BC0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1082528</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6ES7921-5CB20-0AA0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1082528</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6ES7923-5BB00-0CB0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5SY7420-7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>01/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5ST3010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5SD7464-1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3VA2110-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3VA9988-0AA12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3VA2140-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5SY7202-7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5SY7206-7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5SY7216-7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5SY8263-7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5SY7210-7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5SY7220-7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5SM2622-6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5SY7240-8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5SY7206-6</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6EP1961-2BA21</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3SK1111-1AB30</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3SK1211-1BB40</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5TT4452-5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3VA1125-4EF36-0AA0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>02/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3VA9113-0RL21</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5SY7304-7</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5SM2632-6</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3VA2110-5HL32-0AA0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3RV2041-4HA10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>8US1211-4TR00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3RV2901-2E</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3RV2021-1GA20</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3RV2021-4AA20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3RV2031-4EA10</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>02/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3RV2031-4UA10</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3RT2024-2BB40</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3RT2035-1NB30</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>28/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>8US1251-5NT11</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>8US1261-6MT10</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3RA2933-1DB1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>02/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6EP1334-3BA10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>09/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3SU1106-6AA60-1AA0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3SU1801-0NB00-2AC2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1086806</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3RN2000-2AA30</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>16/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5SY7420-7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>01/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5ST3010</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5SD7464-1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3VA2110-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>25/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3VA9988-0AA12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3VA2140-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>25/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5SY7202-7</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5SY7206-7</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5SY7216-7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5SY8263-7</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>22/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>5SY7210-7</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>29/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5SY7220-7</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5SM2622-6</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5SY7240-8</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5SY7206-6</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>17/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6EP1961-2BA21</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>31/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3SK1111-1AB30</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>13/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3SK1211-1BB40</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>21/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5TT4452-5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3VA1125-4EF36-0AA0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>02/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3VA9113-0RL21</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>22/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>5SY7304-7</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>5SM2632-6</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3VA2110-5HL32-0AA0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3RV2041-4HA10</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>30/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>8US1211-4TR00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>28/10/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>3RV2901-2E</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>17/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3RV2021-1GA20</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3RV2021-4AA20</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>3RV2031-4EA10</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>02/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3RV2031-4UA10</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>10/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3RT2024-2BB40</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>20/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3RT2035-1NB30</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>28/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8US1251-5NT11</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>20/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>8US1261-6MT10</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>13/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3RA2933-1DB1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>02/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>6EP1334-3BA10</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>09/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3SU1106-6AA60-1AA0</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>16/12/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3SU1801-0NB00-2AC2</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>10/01/23</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -985,6 +985,226 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5SY7202-7</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5SY7206-7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5SY7240-8</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6EP1961-2BA21</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5SY7304-7</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3RV2021-1GA20</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3RV2021-4AA20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3RT2024-2BB40</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8US1261-6MT10</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6EP1334-3BA10</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>09/02/23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -399,18 +399,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="8.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="6.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="6.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -438,198 +438,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1083270</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5SY7202-7</t>
+          <t>3RT2936-4EA2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27/01/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1083270</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5SY7206-7</t>
+          <t>3RT2946-4EA2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27/01/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1083270</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6EP1334-3BA10</t>
+          <t>3VA9111-0WD40</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16/02/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1082918</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6ES7923-5BB00-0CB0</t>
+          <t>3VA9354-0KB04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23/02/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1082528</t>
+          <t>1083270</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6ES7923-5BB00-0CB0</t>
+          <t>5SY7202-7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23/02/23</t>
+          <t>27/01/23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1083270</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5SY7202-7</t>
+          <t>5SY7206-7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>03/04/23</t>
+          <t>27/01/23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1083270</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5SY7206-7</t>
+          <t>6EP1334-3BA10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17/04/23</t>
+          <t>16/02/23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1082918</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5SY7240-8</t>
+          <t>6ES7923-5BB00-0CB0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>23/02/23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1082528</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6EP1961-2BA21</t>
+          <t>6ES7923-5BB00-0CB0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31/01/23</t>
+          <t>23/02/23</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5SY7304-7</t>
+          <t>5SY7202-7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3RV2021-1GA20</t>
+          <t>5SY7206-7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>17/04/23</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3RV2021-4AA20</t>
+          <t>5SY7240-8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3RT2024-2BB40</t>
+          <t>6EP1961-2BA21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20/02/23</t>
+          <t>31/01/23</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8US1261-6MT10</t>
+          <t>5SY7304-7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13/02/23</t>
+          <t>03/04/23</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6EP1334-3BA10</t>
+          <t>3RV2021-1GA20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09/02/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5SY7202-7</t>
+          <t>3RV2021-4AA20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>03/04/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5SY7206-7</t>
+          <t>3RT2024-2BB40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17/04/23</t>
+          <t>20/02/23</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5SY7240-8</t>
+          <t>8US1261-6MT10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>13/02/23</t>
         </is>
       </c>
     </row>
@@ -839,367 +839,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6EP1961-2BA21</t>
+          <t>6EP1334-3BA10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>31/01/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>5SY7304-7</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>03/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3RV2021-1GA20</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>04/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3RV2021-4AA20</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>04/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3RT2024-2BB40</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20/02/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>8US1261-6MT10</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>13/02/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>6EP1334-3BA10</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>09/02/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>5SY7202-7</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>03/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>5SY7206-7</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>17/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>5SY7240-8</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>04/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>6EP1961-2BA21</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>31/01/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>5SY7304-7</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>03/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3RV2021-1GA20</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>04/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3RV2021-4AA20</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>04/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3RT2024-2BB40</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20/02/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>8US1261-6MT10</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>13/02/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>6EP1334-3BA10</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
         <is>
           <t>09/02/23</t>
         </is>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -438,12 +438,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1082918</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3RT2936-4EA2</t>
+          <t>6ES7923-5BB00-0CB0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -453,107 +453,107 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>23/02/23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1082528</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3RT2946-4EA2</t>
+          <t>6ES7923-5BB00-0CB0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>23/02/23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3VA9111-0WD40</t>
+          <t>5SY7202-7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>03/04/23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3VA9354-0KB04</t>
+          <t>5SY7206-7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>17/04/23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1083270</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5SY7202-7</t>
+          <t>5SY7240-8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27/01/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1083270</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5SY7206-7</t>
+          <t>6EP1961-2BA21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -563,73 +563,73 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27/01/23</t>
+          <t>31/01/23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1083270</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6EP1334-3BA10</t>
+          <t>5SY7304-7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16/02/23</t>
+          <t>02/02/23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1082918</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6ES7923-5BB00-0CB0</t>
+          <t>3RV2021-1GA20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23/02/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1082528</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6ES7923-5BB00-0CB0</t>
+          <t>3RV2021-4AA20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23/02/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5SY7202-7</t>
+          <t>3RT2024-2BB40</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>03/04/23</t>
+          <t>20/02/23</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5SY7206-7</t>
+          <t>8US1261-6MT10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17/04/23</t>
+          <t>13/02/23</t>
         </is>
       </c>
     </row>
@@ -685,17 +685,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5SY7240-8</t>
+          <t>6EP1334-3BA10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>09/02/23</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6EP1961-2BA21</t>
+          <t>3RB2906-2JG1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -717,139 +717,117 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31/01/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5SY7304-7</t>
+          <t>3RT2936-4EA2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>03/04/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3RV2021-1GA20</t>
+          <t>3RT2946-4EA2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3RV2021-4AA20</t>
+          <t>3VA9111-0WD40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3RT2024-2BB40</t>
+          <t>3VA9354-0KB04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20/02/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1083270</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8US1261-6MT10</t>
+          <t>6EP1334-3BA10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13/02/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>6EP1334-3BA10</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>09/02/23</t>
+          <t>16/02/23</t>
         </is>
       </c>
     </row>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -438,12 +438,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1082918</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6ES7923-5BB00-0CB0</t>
+          <t>3RT2936-4EA2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -453,139 +453,139 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23/02/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1082528</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6ES7923-5BB00-0CB0</t>
+          <t>3RT2946-4EA2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23/02/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5SY7202-7</t>
+          <t>3VA9111-0WD40</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>03/04/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088359</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5SY7206-7</t>
+          <t>3VA9354-0KB04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17/04/23</t>
+          <t>30/01/23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1083270</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5SY7240-8</t>
+          <t>6EP1334-3BA10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>16/02/23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1082918</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6EP1961-2BA21</t>
+          <t>6ES7923-5BB00-0CB0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31/01/23</t>
+          <t>23/02/23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1082528</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5SY7304-7</t>
+          <t>6ES7923-5BB00-0CB0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02/02/23</t>
+          <t>23/02/23</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3RV2021-1GA20</t>
+          <t>8US1261-6MT10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>13/02/23</t>
         </is>
       </c>
     </row>
@@ -619,17 +619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3RV2021-4AA20</t>
+          <t>6EP1334-3BA10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>09/02/23</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3RT2024-2BB40</t>
+          <t>6EP1961-2BA21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -651,29 +651,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20/02/23</t>
+          <t>31/01/23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1087028</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8US1261-6MT10</t>
+          <t>5SY7206-7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13/02/23</t>
+          <t>01/06/23</t>
         </is>
       </c>
     </row>
@@ -685,17 +685,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6EP1334-3BA10</t>
+          <t>5SY7202-7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>09/02/23</t>
+          <t>03/04/23</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3RB2906-2JG1</t>
+          <t>5SY7206-7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -717,117 +717,843 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>17/04/23</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3RT2936-4EA2</t>
+          <t>5SY7216-7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>03/04/23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3RT2946-4EA2</t>
+          <t>5SY7240-8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3VA9111-0WD40</t>
+          <t>5SY7304-7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>03/04/23</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3VA9354-0KB04</t>
+          <t>3RV2021-1GA20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1083270</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>3RV2021-4AA20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>04/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3RT2024-2BB40</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3VA1120-4GD46-0AA0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>07/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3VA9988-0AA12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3VA9111-0WF40</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5SD7464-1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3VA2216-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>07/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3VA9221-0WF40</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3VA2140-5HL42-0AA0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>07/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5SY7202-7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21/06/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5SY7206-7</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21/06/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5SY7216-7</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24/05/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5SY7210-7</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>24/05/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5SY7220-7</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5ST3010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5SY7240-8</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5SY7206-6</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6EP1961-2BA21</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19/10/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5SM2622-6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3RV2041-4KA10</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3RT2045-1NB30</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3RA1941-1AA00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>8US1211-4TR00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3RV2901-2E</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3RV2021-4AA20</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10/07/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3RT2026-2BB40</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>26/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3RA2921-2AA00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>8US1251-5NT11</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>03/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>6EP1334-3BA10</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>16/02/23</t>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>22/06/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3SU1106-6AA60-1AA0</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13/04/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1088449</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3RT2015-2BB41</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>17/05/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3RB2906-2JG1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>30/01/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3RB2987-2D</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17/11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1085650</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3RB2383-4AC1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>30/11/22</t>
         </is>
       </c>
     </row>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -438,78 +438,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1087028</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3RT2936-4EA2</t>
+          <t>5SY7206-7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>01/06/23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3RT2946-4EA2</t>
+          <t>3VA1120-4GD46-0AA0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>07/02/23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3VA9111-0WD40</t>
+          <t>3VA9988-0AA12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1088359</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3VA9354-0KB04</t>
+          <t>3VA9111-0WF40</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -519,85 +519,85 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30/01/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1083270</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6EP1334-3BA10</t>
+          <t>5SD7464-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16/02/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1082918</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6ES7923-5BB00-0CB0</t>
+          <t>3VA2216-5HL42-0AA0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23/02/23</t>
+          <t>07/02/23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1082528</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6ES7923-5BB00-0CB0</t>
+          <t>3VA9221-0WF40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23/02/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8US1261-6MT10</t>
+          <t>3VA2140-5HL42-0AA0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -607,63 +607,63 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13/02/23</t>
+          <t>07/02/23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6EP1334-3BA10</t>
+          <t>5SY7202-7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09/02/23</t>
+          <t>21/06/23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6EP1961-2BA21</t>
+          <t>5SY7206-7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31/01/23</t>
+          <t>21/06/23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1087028</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5SY7206-7</t>
+          <t>5SY7216-7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -673,41 +673,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>01/06/23</t>
+          <t>24/05/23</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5SY7202-7</t>
+          <t>5SY7210-7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03/04/23</t>
+          <t>24/05/23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5SY7206-7</t>
+          <t>5SY7220-7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -717,36 +717,36 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17/04/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5SY7216-7</t>
+          <t>5ST3010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>03/04/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -761,41 +761,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5SY7304-7</t>
+          <t>5SY7206-6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>03/04/23</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3RV2021-1GA20</t>
+          <t>6EP1961-2BA21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -805,41 +805,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>19/10/23</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3RV2021-4AA20</t>
+          <t>5SM2622-6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>04/04/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1085650</t>
+          <t>1088449</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3RT2024-2BB40</t>
+          <t>3RV2041-4KA10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20/02/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3VA1120-4GD46-0AA0</t>
+          <t>3RT2045-1NB30</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>07/02/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
@@ -883,17 +883,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3VA9988-0AA12</t>
+          <t>3RA1941-1AA00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>03/02/23</t>
         </is>
       </c>
     </row>
@@ -905,12 +905,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3VA9111-0WF40</t>
+          <t>8US1211-4TR00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5SD7464-1</t>
+          <t>3RV2901-2E</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -949,17 +949,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3VA2216-5HL42-0AA0</t>
+          <t>3RV2021-4AA20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>07/02/23</t>
+          <t>10/07/23</t>
         </is>
       </c>
     </row>
@@ -971,17 +971,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3VA9221-0WF40</t>
+          <t>3RT2026-2BB40</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>26/04/23</t>
         </is>
       </c>
     </row>
@@ -993,17 +993,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3VA2140-5HL42-0AA0</t>
+          <t>3RA2921-2AA00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>07/02/23</t>
+          <t>01/02/23</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5SY7202-7</t>
+          <t>8US1251-5NT11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21/06/23</t>
+          <t>03/04/23</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5SY7206-7</t>
+          <t>6EP1334-3BA10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>21/06/23</t>
+          <t>22/06/23</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5SY7216-7</t>
+          <t>3SU1106-6AA60-1AA0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>24/05/23</t>
+          <t>13/04/23</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5SY7210-7</t>
+          <t>3RT2015-2BB41</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1091,107 +1091,107 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>24/05/23</t>
+          <t>17/05/23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1083270</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5SY7220-7</t>
+          <t>6EP1334-3BA10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>16/02/23</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1082918</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5ST3010</t>
+          <t>6ES7923-5BB00-0CB0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>23/02/23</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1082528</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5SY7240-8</t>
+          <t>6ES7923-5BB00-0CB0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>23/02/23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5SY7206-6</t>
+          <t>5SY7202-7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>03/04/23</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6EP1961-2BA21</t>
+          <t>5SY7206-7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1201,41 +1201,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>19/10/23</t>
+          <t>17/04/23</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5SM2622-6</t>
+          <t>5SY7240-8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3RV2041-4KA10</t>
+          <t>6EP1961-2BA21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1245,41 +1245,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>31/01/23</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3RT2045-1NB30</t>
+          <t>5SY7304-7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>03/04/23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3RA1941-1AA00</t>
+          <t>3RV2021-1GA20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1289,271 +1289,95 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>03/02/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8US1211-4TR00</t>
+          <t>3RV2021-4AA20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>04/04/23</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3RV2901-2E</t>
+          <t>3RT2024-2BB40</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>20/02/23</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3RV2021-4AA20</t>
+          <t>8US1261-6MT10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10/07/23</t>
+          <t>13/02/23</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1088449</t>
+          <t>1085650</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3RT2026-2BB40</t>
+          <t>6EP1334-3BA10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>26/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>1088449</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3RA2921-2AA00</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>01/02/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>1088449</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>8US1251-5NT11</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>03/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1088449</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>6EP1334-3BA10</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>22/06/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1088449</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3SU1106-6AA60-1AA0</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>13/04/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1088449</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>3RT2015-2BB41</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>17/05/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>3RB2906-2JG1</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>30/01/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>3RB2987-2D</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>17/11/22</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1085650</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>3RB2383-4AC1</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>30/11/22</t>
+          <t>09/02/23</t>
         </is>
       </c>
     </row>
